--- a/Documents/processSheet.xlsx
+++ b/Documents/processSheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NIT-AC\SystemDesign2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -566,12 +567,87 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>共有スペース構築</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷口</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仁木</t>
+    <rPh sb="0" eb="2">
+      <t>ニキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野瀬</t>
+    <rPh sb="0" eb="3">
+      <t>オノセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコード共有・データベース</t>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインフレーム・問題作成公開</t>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディタ・リファ共有・サーバ</t>
+    <rPh sb="8" eb="10">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド機能・UI検討</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,8 +683,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +731,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF74709"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFF74709"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF669900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED702B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE20CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE1880"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,26 +965,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,6 +1043,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDE1880"/>
+      <color rgb="FFE51199"/>
+      <color rgb="FFAE20CA"/>
+      <color rgb="FF8A06E4"/>
+      <color rgb="FFED702B"/>
+      <color rgb="FF00CC00"/>
+      <color rgb="FF00CC66"/>
+      <color rgb="FF669900"/>
+      <color rgb="FF33CC33"/>
+      <color rgb="FF0066CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1155,35 +1364,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="34" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="43" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="64" width="4.125" customWidth="1"/>
+    <col min="1" max="2" width="31.58203125" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="35" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="44" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="65" width="4.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="8"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -1212,859 +1422,900 @@
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
-      <c r="AR1" s="4"/>
-    </row>
-    <row r="2" spans="1:91">
+      <c r="AI1" s="8"/>
+      <c r="AS1" s="4"/>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AB2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AC2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AG2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AI2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
-    </row>
-    <row r="3" spans="1:91">
+      <c r="AT2" s="4"/>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="AA3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AI3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
-    </row>
-    <row r="4" spans="1:91">
+      <c r="AT3" s="4"/>
+    </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="20"/>
-      <c r="AR4" s="4"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="20"/>
       <c r="AS4" s="4"/>
-    </row>
-    <row r="5" spans="1:91">
+      <c r="AT4" s="4"/>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
       <c r="B5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="20"/>
-      <c r="AR5" s="4"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
       <c r="AS5" s="4"/>
-    </row>
-    <row r="6" spans="1:91">
+      <c r="AT5" s="4"/>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="7"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="20"/>
-      <c r="AR6" s="4"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
       <c r="AS6" s="4"/>
-    </row>
-    <row r="7" spans="1:91">
+      <c r="AT6" s="4"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="20"/>
-      <c r="AR7" s="4"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
       <c r="AS7" s="4"/>
-    </row>
-    <row r="8" spans="1:91">
+      <c r="AT7" s="4"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="20"/>
-      <c r="AR8" s="4"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
       <c r="AS8" s="4"/>
-      <c r="BZ8" s="4"/>
+      <c r="AT8" s="4"/>
       <c r="CA8" s="4"/>
-    </row>
-    <row r="9" spans="1:91">
+      <c r="CB8" s="4"/>
+    </row>
+    <row r="9" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="20"/>
-      <c r="AR9" s="4"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
       <c r="AS9" s="4"/>
-      <c r="CK9" s="3"/>
-      <c r="CL9" s="2"/>
-      <c r="CM9" s="1"/>
-    </row>
-    <row r="10" spans="1:91">
+      <c r="AT9" s="4"/>
+      <c r="CL9" s="3"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="1"/>
+    </row>
+    <row r="10" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="20"/>
-      <c r="AR10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="20"/>
       <c r="AS10" s="4"/>
-    </row>
-    <row r="11" spans="1:91">
+      <c r="AT10" s="4"/>
+    </row>
+    <row r="11" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="20"/>
-      <c r="AR11" s="4"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="20"/>
       <c r="AS11" s="4"/>
-    </row>
-    <row r="12" spans="1:91">
+      <c r="AT11" s="4"/>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="20"/>
-      <c r="AR12" s="4"/>
+      <c r="B12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="20"/>
       <c r="AS12" s="4"/>
-    </row>
-    <row r="13" spans="1:91">
+      <c r="AT12" s="4"/>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="23"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
-      <c r="S13" s="23"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="23"/>
-      <c r="U13" s="24"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
-      <c r="Z13" s="23"/>
+      <c r="Z13" s="24"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="24"/>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="24"/>
       <c r="AD13" s="24"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
-      <c r="AG13" s="23"/>
+      <c r="AG13" s="24"/>
       <c r="AH13" s="23"/>
-      <c r="AR13" s="4"/>
+      <c r="AI13" s="23"/>
       <c r="AS13" s="4"/>
-    </row>
-    <row r="14" spans="1:91">
+      <c r="AT13" s="4"/>
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="20"/>
-      <c r="AR14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="20"/>
       <c r="AS14" s="4"/>
-    </row>
-    <row r="15" spans="1:91">
+      <c r="AT14" s="4"/>
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="20"/>
-      <c r="AR15" s="4"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="20"/>
       <c r="AS15" s="4"/>
-    </row>
-    <row r="16" spans="1:91">
+      <c r="AT15" s="4"/>
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="7"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="11"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="7"/>
+      <c r="U16" s="11"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="11"/>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="11"/>
-      <c r="AB16" s="7"/>
+      <c r="AB16" s="11"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="11"/>
+      <c r="AG16" s="7"/>
       <c r="AH16" s="11"/>
-    </row>
-    <row r="17" spans="1:34">
+      <c r="AI16" s="11"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="7"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="11"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="11"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="11"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="11"/>
-      <c r="AB17" s="7"/>
+      <c r="AB17" s="11"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="11"/>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="11"/>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="AI17" s="11"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="11"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="11"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="11"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="11"/>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="11"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="11"/>
+      <c r="AG18" s="7"/>
       <c r="AH18" s="11"/>
-    </row>
-    <row r="19" spans="1:34">
+      <c r="AI18" s="11"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="20"/>
-    </row>
-    <row r="20" spans="1:34">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="20"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
       <c r="B20" s="25"/>
-    </row>
-    <row r="21" spans="1:34">
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:34">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2072,904 +2323,969 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:34">
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="H24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="I24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="L24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="M24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="N24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="O24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="P24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="Q24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="18" t="s">
+      <c r="R24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="S24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="18" t="s">
+      <c r="T24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T24" s="18" t="s">
+      <c r="U24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U24" s="18" t="s">
+      <c r="V24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="18" t="s">
+      <c r="W24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="18" t="s">
+      <c r="X24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="X24" s="18" t="s">
+      <c r="Y24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Y24" s="18" t="s">
+      <c r="Z24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Z24" s="18" t="s">
+      <c r="AA24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA24" s="18" t="s">
+      <c r="AB24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB24" s="18" t="s">
+      <c r="AC24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" s="18" t="s">
+      <c r="AD24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AD24" s="18" t="s">
+      <c r="AE24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AE24" s="18" t="s">
+      <c r="AF24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AF24" s="18" t="s">
+      <c r="AG24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG24" s="18" t="s">
+      <c r="AH24" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH24" s="18" t="s">
+      <c r="AI24" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="F25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="H25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="J25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="L25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="O25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="Q25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="R25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="19" t="s">
+      <c r="S25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="T25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T25" s="19" t="s">
+      <c r="U25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="V25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="19" t="s">
+      <c r="W25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="X25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X25" s="20" t="s">
+      <c r="Y25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Y25" s="7" t="s">
+      <c r="Z25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z25" s="19" t="s">
+      <c r="AA25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AA25" s="7" t="s">
+      <c r="AB25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB25" s="19" t="s">
+      <c r="AC25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AC25" s="7" t="s">
+      <c r="AD25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD25" s="20" t="s">
+      <c r="AE25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE25" s="11" t="s">
+      <c r="AF25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AF25" s="19" t="s">
+      <c r="AG25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AG25" s="7" t="s">
+      <c r="AH25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="19" t="s">
+      <c r="AI25" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="7"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="19"/>
-    </row>
-    <row r="27" spans="1:34">
+      <c r="N26" s="7"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="19"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7"/>
       <c r="B27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="19"/>
-    </row>
-    <row r="28" spans="1:34">
+      <c r="C27" s="41"/>
+      <c r="D27" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="19"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="19"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="7"/>
-    </row>
-    <row r="29" spans="1:34">
+      <c r="AI28" s="7"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="19"/>
-    </row>
-    <row r="30" spans="1:34">
+      <c r="B29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="19"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="19"/>
-    </row>
-    <row r="31" spans="1:34">
+      <c r="B30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="19"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="19"/>
-    </row>
-    <row r="32" spans="1:34">
+      <c r="B31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="19"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="19"/>
-    </row>
-    <row r="33" spans="1:34">
+      <c r="N32" s="7"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="19"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="24"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="7"/>
       <c r="Q33" s="23"/>
-      <c r="R33" s="24"/>
+      <c r="R33" s="23"/>
       <c r="S33" s="24"/>
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
       <c r="V33" s="24"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="20"/>
       <c r="Z33" s="24"/>
       <c r="AA33" s="24"/>
       <c r="AB33" s="24"/>
       <c r="AC33" s="24"/>
-      <c r="AD33" s="23"/>
+      <c r="AD33" s="24"/>
       <c r="AE33" s="23"/>
-      <c r="AF33" s="24"/>
+      <c r="AF33" s="23"/>
       <c r="AG33" s="24"/>
       <c r="AH33" s="24"/>
-    </row>
-    <row r="34" spans="1:34">
+      <c r="AI33" s="24"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="7"/>
+      <c r="B34" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="19"/>
-    </row>
-    <row r="35" spans="1:34">
+      <c r="N34" s="7"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="19"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="19"/>
-    </row>
-    <row r="36" spans="1:34">
+      <c r="N35" s="7"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="19"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="11"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="7"/>
+      <c r="R36" s="11"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="11"/>
+      <c r="W36" s="7"/>
       <c r="X36" s="11"/>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="11"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
-      <c r="AD36" s="11"/>
+      <c r="AD36" s="7"/>
       <c r="AE36" s="11"/>
-      <c r="AF36" s="7"/>
+      <c r="AF36" s="11"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
-    </row>
-    <row r="37" spans="1:34">
+      <c r="AI36" s="7"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="20"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="19"/>
-    </row>
-    <row r="38" spans="1:34">
+      <c r="K37" s="11"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="19"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="7"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="19"/>
-    </row>
-    <row r="39" spans="1:34">
+      <c r="U38" s="7"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="19"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="19"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="19"/>
-    </row>
-    <row r="40" spans="1:34">
+      <c r="U39" s="7"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="19"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="19"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="19"/>
-    </row>
-    <row r="41" spans="1:34">
+      <c r="U40" s="7"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="19"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="19"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="19"/>
-    </row>
-    <row r="45" spans="1:34" ht="21.75" customHeight="1"/>
-    <row r="46" spans="1:34" ht="23.25" customHeight="1"/>
-    <row r="47" spans="1:34" ht="23.25" customHeight="1"/>
-    <row r="49" spans="1:6" ht="15">
-      <c r="A49" s="32" t="s">
+      <c r="U41" s="7"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="19"/>
+    </row>
+    <row r="45" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="30" t="s">
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="31" t="s">
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="30" t="s">
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25">
-      <c r="A53" s="31" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="B57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="B58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="B59" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="D53:G53"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F52"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/processSheet.xlsx
+++ b/Documents/processSheet.xlsx
@@ -974,6 +974,54 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -988,54 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:CN60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1640,37 +1640,37 @@
       <c r="B4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="36"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="31"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="11"/>
@@ -1683,7 +1683,7 @@
       <c r="B5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="21" t="s">
         <v>83</v>
       </c>
@@ -1713,11 +1713,11 @@
       <c r="AB5" s="11"/>
       <c r="AC5" s="24"/>
       <c r="AD5" s="24"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="22" t="s">
         <v>86</v>
       </c>
@@ -1747,20 +1747,20 @@
       <c r="S6" s="7"/>
       <c r="T6" s="11"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="B7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="22" t="s">
         <v>84</v>
       </c>
@@ -1795,15 +1795,15 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
     </row>
@@ -1812,7 +1812,7 @@
       <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="22" t="s">
         <v>85</v>
       </c>
@@ -1833,20 +1833,20 @@
       <c r="S8" s="19"/>
       <c r="T8" s="11"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="CA8" s="4"/>
@@ -1857,36 +1857,36 @@
       <c r="B9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="11"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
       <c r="AE9" s="24"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
@@ -1944,31 +1944,31 @@
       <c r="B11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="11"/>
@@ -1987,34 +1987,34 @@
       <c r="B12" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
       <c r="AC12" s="19"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="19"/>
@@ -2110,27 +2110,27 @@
       <c r="B15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
       <c r="V15" s="7"/>
       <c r="W15" s="19"/>
       <c r="X15" s="7"/>
@@ -2536,7 +2536,7 @@
       <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
         <v>84</v>
       </c>
@@ -2556,14 +2556,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="19"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
       <c r="AC26" s="19"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="20"/>
@@ -2577,31 +2577,31 @@
       <c r="B27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
@@ -2618,31 +2618,31 @@
       <c r="B28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -2659,26 +2659,26 @@
       <c r="B29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
       <c r="U29" s="24"/>
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
@@ -2700,31 +2700,31 @@
       <c r="B30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="45"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="7"/>
@@ -2741,7 +2741,7 @@
       <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="48"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="22" t="s">
         <v>83</v>
       </c>
@@ -2799,13 +2799,13 @@
       <c r="S32" s="19"/>
       <c r="T32" s="7"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="20"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="20"/>
@@ -2821,7 +2821,7 @@
       <c r="B33" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="21" t="s">
         <v>86</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="B34" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="47"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="21" t="s">
         <v>83</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="B37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="44"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="22" t="s">
         <v>85</v>
       </c>
@@ -2990,23 +2990,23 @@
       <c r="I37" s="24"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
       <c r="AC37" s="19"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="20"/>
@@ -3167,17 +3167,17 @@
     <row r="46" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="47" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="29"/>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="27" t="s">
@@ -3187,12 +3187,12 @@
         <v>56</v>
       </c>
       <c r="C50" s="27"/>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="28" t="s">
@@ -3202,10 +3202,10 @@
         <v>58</v>
       </c>
       <c r="C51" s="28"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="27" t="s">
@@ -3215,10 +3215,10 @@
         <v>60</v>
       </c>
       <c r="C52" s="27"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="28" t="s">
@@ -3228,12 +3228,12 @@
         <v>61</v>
       </c>
       <c r="C53" s="28"/>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">

--- a/Documents/processSheet.xlsx
+++ b/Documents/processSheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -640,6 +640,96 @@
     <rPh sb="9" eb="11">
       <t>ケントウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ui/メインフレーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント/リファレンス共有</t>
+    <rPh sb="13" eb="15">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澤口</t>
+    <rPh sb="0" eb="2">
+      <t>サワグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市名</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷口・澤口</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サワグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野・市名</t>
+    <rPh sb="0" eb="2">
+      <t>ナカノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澤口・仁木</t>
+    <rPh sb="0" eb="2">
+      <t>サワグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市名</t>
+    <rPh sb="0" eb="2">
+      <t>イチナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント・リファレンス共有</t>
+    <rPh sb="13" eb="15">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI・メインフレーム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +884,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -883,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1132,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN60"/>
+  <dimension ref="A1:CN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1642,7 +1741,7 @@
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="21" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="32"/>
@@ -1808,7 +1907,9 @@
       <c r="AT7" s="4"/>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
@@ -1853,13 +1954,15 @@
       <c r="CB8" s="4"/>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="22" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="11"/>
@@ -2112,7 +2215,7 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="22" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -2186,41 +2289,47 @@
       <c r="AI16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
+      <c r="A17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
@@ -2538,7 +2647,7 @@
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="21" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="19"/>
@@ -2579,7 +2688,7 @@
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -2620,7 +2729,7 @@
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="22" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -2661,7 +2770,7 @@
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="22" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -2702,7 +2811,7 @@
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
@@ -2743,7 +2852,7 @@
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="22" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -2823,7 +2932,7 @@
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="21" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -2864,7 +2973,7 @@
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="19"/>
@@ -2981,7 +3090,7 @@
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="22" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -3053,41 +3162,47 @@
       <c r="AI38" s="19"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="19"/>
+      <c r="A39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
@@ -3280,6 +3395,22 @@
       </c>
       <c r="C60" s="25"/>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D53:G53"/>
